--- a/firstRPGgame.xlsx
+++ b/firstRPGgame.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanggi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanggi/Desktop/project/Unity/firstRPGgame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CFB82E-CCD5-584E-958C-FF6AF9703968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C3D218-2C0C-9844-A9E3-833BF3382086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진척율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주요 업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,23 +224,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.  개인정보 관리 메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.1 증빙서류 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.1 세금계산서 출력 프로세스 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.2 현금영수증 출력 프로세스 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이상기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 스탯 추가 및 UI구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPbar 생성 &amp; 스크립트 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 컨셉 및 차별점 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시장 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,14 +327,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,8 +377,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -399,13 +441,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,46 +512,76 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F753AA6-DE5C-49F2-BB7C-CC2DC561C87B}">
-  <dimension ref="B2:BQ16"/>
+  <dimension ref="B2:BQ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -812,500 +921,545 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="2:69" ht="20" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="11">
         <v>45703</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="2:69" ht="20" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="2:69" ht="20" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="19"/>
+      <c r="C5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="2:69" ht="20" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="12">
         <v>45699</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="2:69" ht="20" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="10" spans="2:69" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="E10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="17"/>
+      <c r="BD10" s="17"/>
+      <c r="BE10" s="17"/>
+      <c r="BF10" s="17"/>
+      <c r="BG10" s="17"/>
+      <c r="BH10" s="17"/>
+      <c r="BI10" s="17"/>
+      <c r="BJ10" s="17"/>
+      <c r="BK10" s="17"/>
+      <c r="BL10" s="17"/>
+      <c r="BM10" s="17"/>
+      <c r="BN10" s="17"/>
+      <c r="BO10" s="17"/>
+      <c r="BP10" s="17"/>
+      <c r="BQ10" s="17"/>
+    </row>
+    <row r="11" spans="2:69" ht="15" customHeight="1">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="I11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB11" s="16"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="16"/>
+      <c r="BF11" s="16"/>
+      <c r="BG11" s="16"/>
+      <c r="BH11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI11" s="16"/>
+      <c r="BJ11" s="16"/>
+      <c r="BK11" s="16"/>
+      <c r="BL11" s="16"/>
+      <c r="BM11" s="16"/>
+      <c r="BN11" s="16"/>
+      <c r="BO11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="BP11" s="16"/>
+      <c r="BQ11" s="16"/>
+    </row>
+    <row r="12" spans="2:69" ht="15" customHeight="1">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="16" t="s">
+      <c r="K12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BQ12" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:69" ht="20" customHeight="1">
+      <c r="B13" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="5">
+        <v>5</v>
+      </c>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="2:69" ht="20" customHeight="1">
+      <c r="B14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="16"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="16"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="16"/>
-      <c r="BF10" s="16"/>
-      <c r="BG10" s="16"/>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="16"/>
-      <c r="BK10" s="16"/>
-      <c r="BL10" s="16"/>
-      <c r="BM10" s="16"/>
-      <c r="BN10" s="16"/>
-      <c r="BO10" s="16"/>
-      <c r="BP10" s="16"/>
-      <c r="BQ10" s="16"/>
-    </row>
-    <row r="11" spans="2:69" ht="15" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="17" t="s">
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="15"/>
-      <c r="AW11" s="15"/>
-      <c r="AX11" s="15"/>
-      <c r="AY11" s="15"/>
-      <c r="AZ11" s="15"/>
-      <c r="BA11" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB11" s="15"/>
-      <c r="BC11" s="15"/>
-      <c r="BD11" s="15"/>
-      <c r="BE11" s="15"/>
-      <c r="BF11" s="15"/>
-      <c r="BG11" s="15"/>
-      <c r="BH11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="BI11" s="15"/>
-      <c r="BJ11" s="15"/>
-      <c r="BK11" s="15"/>
-      <c r="BL11" s="15"/>
-      <c r="BM11" s="15"/>
-      <c r="BN11" s="15"/>
-      <c r="BO11" s="15" t="s">
+      <c r="F14" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="2:69" ht="20" customHeight="1">
+      <c r="B15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BP11" s="15"/>
-      <c r="BQ11" s="15"/>
-    </row>
-    <row r="12" spans="2:69" ht="15" customHeight="1">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AW12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AY12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AZ12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="BC12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BI12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BJ12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BK12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="BL12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="BN12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="BO12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="BP12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="BQ12" s="8" t="s">
+      <c r="F15" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="2:69" ht="20" customHeight="1">
+      <c r="B16" s="32"/>
+      <c r="D16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="2:69" ht="20" customHeight="1">
-      <c r="B13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:69" ht="20" customHeight="1">
-      <c r="C14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:69" ht="20" customHeight="1">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="11">
-        <v>2</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="2:69" ht="20" customHeight="1">
-      <c r="D16" s="9" t="s">
+      <c r="F16" s="29">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="2:13" ht="20" customHeight="1">
+      <c r="B17" s="32"/>
+      <c r="D17" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="20" customHeight="1">
+      <c r="B18" s="32"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="20" customHeight="1">
+      <c r="B19" s="32"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="2:13" ht="20" customHeight="1">
+      <c r="B20" s="32"/>
+    </row>
+    <row r="21" spans="2:13" ht="20" customHeight="1">
+      <c r="B21" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>3</v>
-      </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+    </row>
+    <row r="22" spans="2:13" ht="20" customHeight="1">
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+  <mergeCells count="25">
+    <mergeCell ref="B15:B20"/>
     <mergeCell ref="I10:AL10"/>
     <mergeCell ref="BO11:BQ11"/>
     <mergeCell ref="AM10:BQ10"/>
@@ -1318,6 +1472,18 @@
     <mergeCell ref="P11:V11"/>
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="AD11:AJ11"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/firstRPGgame.xlsx
+++ b/firstRPGgame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanggi/Desktop/project/Unity/firstRPGgame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C3D218-2C0C-9844-A9E3-833BF3382086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365586AB-66D1-1B43-898F-19CF55A51938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>게임 시장 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 화면 조정 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 불러오기 &amp; 코드 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 유닛 공격 &amp; 점프 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,12 +380,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,19 +518,34 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,19 +566,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,19 +581,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,7 +904,7 @@
   <dimension ref="B2:BQ22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -921,237 +924,237 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:69" ht="20" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="30">
         <v>45703</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:69" ht="20" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:69" ht="20" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:69" ht="20" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="31">
         <v>45699</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="2:69" ht="20" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="10" spans="2:69" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="26" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="17" t="s">
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="17"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="17"/>
-      <c r="BH10" s="17"/>
-      <c r="BI10" s="17"/>
-      <c r="BJ10" s="17"/>
-      <c r="BK10" s="17"/>
-      <c r="BL10" s="17"/>
-      <c r="BM10" s="17"/>
-      <c r="BN10" s="17"/>
-      <c r="BO10" s="17"/>
-      <c r="BP10" s="17"/>
-      <c r="BQ10" s="17"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="22"/>
+      <c r="AU10" s="22"/>
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="22"/>
+      <c r="AX10" s="22"/>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="22"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
+      <c r="BD10" s="22"/>
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="22"/>
+      <c r="BG10" s="22"/>
+      <c r="BH10" s="22"/>
+      <c r="BI10" s="22"/>
+      <c r="BJ10" s="22"/>
+      <c r="BK10" s="22"/>
+      <c r="BL10" s="22"/>
+      <c r="BM10" s="22"/>
+      <c r="BN10" s="22"/>
+      <c r="BO10" s="22"/>
+      <c r="BP10" s="22"/>
+      <c r="BQ10" s="22"/>
     </row>
     <row r="11" spans="2:69" ht="15" customHeight="1">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="18" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="18" t="s">
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="18" t="s">
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="18" t="s">
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="16" t="s">
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="16"/>
-      <c r="AP11" s="16"/>
-      <c r="AQ11" s="16"/>
-      <c r="AR11" s="16"/>
-      <c r="AS11" s="16"/>
-      <c r="AT11" s="16" t="s">
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="16"/>
-      <c r="AW11" s="16"/>
-      <c r="AX11" s="16"/>
-      <c r="AY11" s="16"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="16" t="s">
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="16"/>
-      <c r="BD11" s="16"/>
-      <c r="BE11" s="16"/>
-      <c r="BF11" s="16"/>
-      <c r="BG11" s="16"/>
-      <c r="BH11" s="16" t="s">
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="21"/>
+      <c r="BE11" s="21"/>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="21"/>
+      <c r="BH11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BI11" s="16"/>
-      <c r="BJ11" s="16"/>
-      <c r="BK11" s="16"/>
-      <c r="BL11" s="16"/>
-      <c r="BM11" s="16"/>
-      <c r="BN11" s="16"/>
-      <c r="BO11" s="16" t="s">
+      <c r="BI11" s="21"/>
+      <c r="BJ11" s="21"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="21"/>
+      <c r="BM11" s="21"/>
+      <c r="BN11" s="21"/>
+      <c r="BO11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="BP11" s="16"/>
-      <c r="BQ11" s="16"/>
+      <c r="BP11" s="21"/>
+      <c r="BQ11" s="21"/>
     </row>
     <row r="12" spans="2:69" ht="15" customHeight="1">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1340,7 +1343,7 @@
       </c>
     </row>
     <row r="13" spans="2:69" ht="20" customHeight="1">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="17" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1349,19 +1352,19 @@
       <c r="E13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="15">
         <v>0.5</v>
       </c>
       <c r="G13" s="5">
         <v>5</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:69" ht="20" customHeight="1">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1370,95 +1373,115 @@
       <c r="E14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="15">
         <v>0.5</v>
       </c>
       <c r="G14" s="5">
         <v>5</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="2:69" ht="20" customHeight="1">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="15">
         <v>0.5</v>
       </c>
       <c r="G15" s="5">
         <v>2</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:69" ht="20" customHeight="1">
-      <c r="B16" s="32"/>
-      <c r="D16" s="28" t="s">
+      <c r="B16" s="18"/>
+      <c r="D16" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="15">
         <v>0</v>
       </c>
       <c r="G16" s="5">
         <v>3</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="2:13" ht="20" customHeight="1">
-      <c r="B17" s="32"/>
-      <c r="D17" s="28" t="s">
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="2:17" ht="20" customHeight="1">
+      <c r="B17" s="18"/>
+      <c r="D17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="20" customHeight="1">
-      <c r="B18" s="32"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="M18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="20" customHeight="1">
-      <c r="B19" s="32"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="2:13" ht="20" customHeight="1">
-      <c r="B20" s="32"/>
-    </row>
-    <row r="21" spans="2:13" ht="20" customHeight="1">
-      <c r="B21" s="21" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="2:17" ht="20" customHeight="1">
+      <c r="B18" s="18"/>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="2:17" ht="20" customHeight="1">
+      <c r="B19" s="18"/>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="2:17" ht="20" customHeight="1">
+      <c r="B20" s="18"/>
+      <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="2:17" ht="20" customHeight="1">
+      <c r="B21" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="20" customHeight="1">
+    <row r="22" spans="2:17" ht="20" customHeight="1">
       <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="I10:AL10"/>
     <mergeCell ref="BO11:BQ11"/>
@@ -1472,18 +1495,6 @@
     <mergeCell ref="P11:V11"/>
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="AD11:AJ11"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
